--- a/biology/Zoologie/Conotrachelus/Conotrachelus.xlsx
+++ b/biology/Zoologie/Conotrachelus/Conotrachelus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conotrachelus est un genre d'insectes coléoptères de la sous-famille des Molytinae et de la tribu des Conotrachelini. 
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Conotrachelus adspersus -  Conotrachelus affinis -  Conotrachelus albicinctus -  Conotrachelus anaglypticus -  Conotrachelus aratus -  Conotrachelus arizonicus -  Conotrachelus asperatus -  Conotrachelus belfragei -  Conotrachelus biscaynensis -  Conotrachelus buchanani -  Conotrachelus cameronensis -  Conotrachelus carinifer -  Conotrachelus carolinensis -  Conotrachelus cognatus -  Conotrachelus compositus -  Conotrachelus confinis -  Conotrachelus conotracheloides -  Conotrachelus corni -  Conotrachelus coronatus -  Conotrachelus crataegi -  Conotrachelus cristatus -  Conotrachelus duplex -  Conotrachelus ecarinatus -  Conotrachelus echinatus -  Conotrachelus elegans -  Conotrachelus erinaceus -  Conotrachelus falli -  Conotrachelus fissunguis -  Conotrachelus floridanus -  Conotrachelus geminatus -  Conotrachelus hayesi -  Conotrachelus hicoriae -  Conotrachelus integer -  Conotrachelus invadens -  Conotrachelus iowensis -  Conotrachelus juglandis -  Conotrachelus leucophaetus -  Conotrachelus lucanus -  Conotrachelus maritimus -  Conotrachelus naso -  Conotrachelus nenuphar -  Conotrachelus neomexicanus -  Conotrachelus nigromaculatus -  Conotrachelus nivosus -  Conotrachelus obesulus -  Conotrachelus pecanae -  Conotrachelus posticatus -  Conotrachelus pusillus -  Conotrachelus recessus -  Conotrachelus retentus -  Conotrachelus retusus -  Conotrachelus rotundus -  Conotrachelus rubescens -  Conotrachelus schoofi -  Conotrachelus seniculus -  Conotrachelus serpentinus -  Conotrachelus setiferous -  Conotrachelus similis -  Conotrachelus texanus -  Conotrachelus tuberculicollis -  Conotrachelus tuberosus
 </t>
